--- a/biology/Médecine/Système_ventriculaire/Système_ventriculaire.xlsx
+++ b/biology/Médecine/Système_ventriculaire/Système_ventriculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_ventriculaire</t>
+          <t>Système_ventriculaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le système ventriculaire est un ensemble de cavités situées à l'intérieur du cerveau en continuité avec le canal de l'épendyme (ou canal central) de la moelle spinale[1]. Il participe à la sécrétion et à la circulation du liquide cérébrospinal (ou céphalorachidien) où baigne le système nerveux central. Il est constitué principalement de quatre ventricules :
-deux ventricules latéraux, droit (situé dans l'hémisphère cérébral droit) et gauche (situé dans l'hémisphère cérébral gauche) : en forme de fer à cheval, ils sont constitués de trois cornes – frontale (antérieure), occipitale (postérieure) et temporale (inférieure) – se réunissant au niveau de l'atrium (ou carrefour) situé derrière le thalamus[2] ;
-le troisième ventricule (situé dans le diencéphale) : cavité étroite entre les thalamus, elle présente trois étages, thalamique, sous-thalamique et infundibulo-tubérien[3] ;
-le quatrième ventricule (situé dans le rhombencéphale) : en forme de losange, aplati dans le sens antéro-postérieur[4].
-Chacun de ces ventricules est tapissé d'un plexus choroïde[1] qui sécrète le liquide cérébrospinal à partir des éléments contenus dans le plasma sanguin.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le système ventriculaire est un ensemble de cavités situées à l'intérieur du cerveau en continuité avec le canal de l'épendyme (ou canal central) de la moelle spinale. Il participe à la sécrétion et à la circulation du liquide cérébrospinal (ou céphalorachidien) où baigne le système nerveux central. Il est constitué principalement de quatre ventricules :
+deux ventricules latéraux, droit (situé dans l'hémisphère cérébral droit) et gauche (situé dans l'hémisphère cérébral gauche) : en forme de fer à cheval, ils sont constitués de trois cornes – frontale (antérieure), occipitale (postérieure) et temporale (inférieure) – se réunissant au niveau de l'atrium (ou carrefour) situé derrière le thalamus ;
+le troisième ventricule (situé dans le diencéphale) : cavité étroite entre les thalamus, elle présente trois étages, thalamique, sous-thalamique et infundibulo-tubérien ;
+le quatrième ventricule (situé dans le rhombencéphale) : en forme de losange, aplati dans le sens antéro-postérieur.
+Chacun de ces ventricules est tapissé d'un plexus choroïde qui sécrète le liquide cérébrospinal à partir des éléments contenus dans le plasma sanguin.
 Les ventricules communiquent entre eux : 
 entre les ventricules latéraux et le troisième ventricule : les foramens interventriculaires (ou trous de Monro) ;
 entre le troisième et le quatrième ventricule : l'aqueduc du mésencéphale (anciennement aqueduc de Sylvius).
